--- a/notebooks/members/EEGFakturaExports/RC101533-EEG-Masterdata-20240122.xlsx
+++ b/notebooks/members/EEGFakturaExports/RC101533-EEG-Masterdata-20240122.xlsx
@@ -905,7 +905,7 @@
     <row r="2" s="1" customFormat="1">
       <c r="A2" t="inlineStr">
         <is>
-          <t/>
+          <t>001</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -1084,7 +1084,7 @@
     <row r="3" s="1" customFormat="1">
       <c r="A3" t="inlineStr">
         <is>
-          <t/>
+          <t>001</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
